--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_12_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_12_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11481.36013284796</v>
+        <v>2284790.666436744</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11481.36013284796</v>
+        <v>2284790.666436744</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>27956.36352518854</v>
+        <v>1687832.627898912</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27956.36352518854</v>
+        <v>1687832.627898912</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1189397417.002273</v>
+        <v>48199356.86174248</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11311.55823356316</v>
+        <v>1166366.661557552</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21512.96262235151</v>
+        <v>2142383.867815312</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31714.36701113984</v>
+        <v>3118401.074073074</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42998.00173135938</v>
+        <v>4035777.827428555</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>54281.63645157888</v>
+        <v>4953154.580784035</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>64597.65749041096</v>
+        <v>5929171.787041795</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>74969.86519590969</v>
+        <v>6908309.313299552</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>85326.39290140844</v>
+        <v>7884326.519557309</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>96466.31585630798</v>
+        <v>8787260.413742583</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>107591.0030381463</v>
+        <v>9709937.593643963</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>118641.0713890129</v>
+        <v>10631192.48720603</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>129691.7568428625</v>
+        <v>11552570.18426165</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>140742.4422967131</v>
+        <v>12473947.88131724</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>151888.5998452154</v>
+        <v>13391324.63467273</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>163087.2956297269</v>
+        <v>14293668.93754785</v>
       </c>
     </row>
   </sheetData>
